--- a/relatorios/repasses_liberados/dentistas/11793432473/2023-08-25_relatorio_repasses_11793432473.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11793432473/2023-08-25_relatorio_repasses_11793432473.xlsx
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N360">
         <v>0</v>
@@ -17174,7 +17174,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N361">
         <v>0</v>
@@ -17526,7 +17526,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -17878,7 +17878,7 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N377">
         <v>0</v>
@@ -18010,7 +18010,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -20210,7 +20210,7 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N430">
         <v>0</v>
@@ -20518,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N437">
         <v>0</v>
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="M442">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N442">
         <v>0</v>
@@ -21530,7 +21530,7 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N460">
         <v>0</v>
@@ -21706,7 +21706,7 @@
         <v>0</v>
       </c>
       <c r="M464">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N464">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="M465">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N465">
         <v>0</v>
@@ -21794,7 +21794,7 @@
         <v>0</v>
       </c>
       <c r="M466">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N466">
         <v>0</v>
@@ -22234,7 +22234,7 @@
         <v>0</v>
       </c>
       <c r="M476">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N476">
         <v>0</v>
@@ -22322,7 +22322,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N478">
         <v>0</v>
@@ -22410,7 +22410,7 @@
         <v>0</v>
       </c>
       <c r="M480">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N480">
         <v>0</v>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="M494">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N494">
         <v>0</v>
@@ -23686,7 +23686,7 @@
         <v>0</v>
       </c>
       <c r="M509">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N509">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>0</v>
       </c>
       <c r="M510">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N510">
         <v>0</v>
@@ -24170,7 +24170,7 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N520">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N521">
         <v>0</v>
@@ -25666,7 +25666,7 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N554">
         <v>0</v>
@@ -25710,7 +25710,7 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N555">
         <v>0</v>
@@ -26502,7 +26502,7 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N573">
         <v>0</v>
@@ -28218,7 +28218,7 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N612">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="M613">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N613">
         <v>0</v>
@@ -29670,7 +29670,7 @@
         <v>0</v>
       </c>
       <c r="M645">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N645">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N657">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N659">
         <v>0</v>
@@ -30726,7 +30726,7 @@
         <v>0</v>
       </c>
       <c r="M669">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N669">
         <v>0</v>
@@ -30814,7 +30814,7 @@
         <v>0</v>
       </c>
       <c r="M671">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N671">
         <v>0</v>
@@ -32530,7 +32530,7 @@
         <v>0</v>
       </c>
       <c r="M710">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N710">
         <v>0</v>
@@ -32574,7 +32574,7 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N711">
         <v>0</v>
@@ -33234,7 +33234,7 @@
         <v>0</v>
       </c>
       <c r="M726">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N726">
         <v>0</v>
@@ -33278,7 +33278,7 @@
         <v>0</v>
       </c>
       <c r="M727">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N727">
         <v>0</v>
@@ -33718,7 +33718,7 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N737">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="M739">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N739">
         <v>0</v>
@@ -33850,7 +33850,7 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="N740">
         <v>0</v>
@@ -34158,7 +34158,7 @@
         <v>0</v>
       </c>
       <c r="M747">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N747">
         <v>0</v>
@@ -34246,7 +34246,7 @@
         <v>0</v>
       </c>
       <c r="M749">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N749">
         <v>0</v>
@@ -34994,7 +34994,7 @@
         <v>0</v>
       </c>
       <c r="M766">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N766">
         <v>0</v>
@@ -35082,7 +35082,7 @@
         <v>0</v>
       </c>
       <c r="M768">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N768">
         <v>0</v>
@@ -35918,7 +35918,7 @@
         <v>0</v>
       </c>
       <c r="M787">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N787">
         <v>0</v>
@@ -36006,7 +36006,7 @@
         <v>0</v>
       </c>
       <c r="M789">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N789">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/11793432473/2023-08-25_relatorio_repasses_11793432473.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11793432473/2023-08-25_relatorio_repasses_11793432473.xlsx
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -4018,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N62">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N63">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4282,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N68">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4370,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N70">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5206,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5514,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N96">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5558,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5602,10 +5602,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N98">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5646,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6350,10 +6350,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N115">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6394,10 +6394,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N116">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6438,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N117">
-        <v>5.808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6482,10 +6482,10 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N118">
-        <v>5.015999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N119">
-        <v>3.696</v>
+        <v>4.928000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6614,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N121">
-        <v>3.696</v>
+        <v>4.928000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6658,10 +6658,10 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N122">
-        <v>3.696</v>
+        <v>4.928000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6790,10 +6790,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>7.271999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -7538,10 +7538,10 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N142">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -7890,10 +7890,10 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N150">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N152">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8506,10 +8506,10 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N164">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -8858,10 +8858,10 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N172">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -8902,10 +8902,10 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N173">
-        <v>9.576000000000001</v>
+        <v>12.768</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -8990,10 +8990,10 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N175">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -9034,10 +9034,10 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N176">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -9870,10 +9870,10 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N195">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -10178,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N202">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -10266,10 +10266,10 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N204">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -10310,10 +10310,10 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N205">
-        <v>5.184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -10354,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N206">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -10398,10 +10398,10 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N207">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11058,10 +11058,10 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N222">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -11102,10 +11102,10 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N223">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11498,10 +11498,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N232">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11542,10 +11542,10 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N233">
-        <v>6.405</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11806,10 +11806,10 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N239">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12378,10 +12378,10 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N252">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -12422,10 +12422,10 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N253">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12598,10 +12598,10 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N257">
-        <v>10.671</v>
+        <v>14.228</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12686,10 +12686,10 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N259">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13082,10 +13082,10 @@
         <v>0</v>
       </c>
       <c r="M268">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N268">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -13126,10 +13126,10 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N269">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -13522,10 +13522,10 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N278">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -13610,10 +13610,10 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N280">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -13654,10 +13654,10 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N281">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13874,10 +13874,10 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N286">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -13962,10 +13962,10 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N288">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -14226,10 +14226,10 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N294">
-        <v>7.244999999999999</v>
+        <v>12.075</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14270,10 +14270,10 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N295">
-        <v>5.97</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -14490,10 +14490,10 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -14622,10 +14622,10 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N303">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -14666,10 +14666,10 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N304">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14842,10 +14842,10 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N308">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -14886,10 +14886,10 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N309">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -14930,10 +14930,10 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N310">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -14974,10 +14974,10 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N311">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -15282,10 +15282,10 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N318">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -15370,10 +15370,10 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N320">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -15546,10 +15546,10 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N324">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -16558,7 +16558,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -16602,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N348">
         <v>0</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -16822,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="M353">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N353">
         <v>0</v>
@@ -17174,7 +17174,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N361">
         <v>0</v>
@@ -17394,7 +17394,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -17438,7 +17438,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -17482,7 +17482,7 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N368">
         <v>0</v>
@@ -17526,7 +17526,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -17878,7 +17878,7 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N377">
         <v>0</v>
@@ -17966,7 +17966,7 @@
         <v>0</v>
       </c>
       <c r="M379">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N379">
         <v>0</v>
@@ -18010,7 +18010,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -18186,7 +18186,7 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N385">
         <v>0</v>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="M386">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N386">
         <v>0</v>
@@ -18318,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="M387">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N387">
         <v>0</v>
@@ -18362,7 +18362,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -18934,7 +18934,7 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N401">
         <v>0</v>
@@ -19022,7 +19022,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N403">
         <v>0</v>
@@ -19066,10 +19066,10 @@
         <v>0.403226</v>
       </c>
       <c r="M404">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N404">
-        <v>65</v>
+        <v>6.048389999999999</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -19110,10 +19110,10 @@
         <v>0.596774</v>
       </c>
       <c r="M405">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N405">
-        <v>0</v>
+        <v>13.2483828</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -19154,7 +19154,7 @@
         <v>0</v>
       </c>
       <c r="M406">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N406">
         <v>0</v>
@@ -19198,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N407">
         <v>0</v>
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N408">
         <v>0</v>
@@ -19286,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N409">
         <v>0</v>
@@ -19506,7 +19506,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -19550,7 +19550,7 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N415">
         <v>0</v>
@@ -19594,7 +19594,7 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N416">
         <v>0</v>
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -20210,7 +20210,7 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N430">
         <v>0</v>
@@ -20518,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N437">
         <v>0</v>
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N440">
         <v>0</v>
@@ -20694,7 +20694,7 @@
         <v>0</v>
       </c>
       <c r="M441">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N441">
         <v>0</v>
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="M442">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N442">
         <v>0</v>
@@ -20782,7 +20782,7 @@
         <v>0</v>
       </c>
       <c r="M443">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N443">
         <v>0</v>
@@ -20826,7 +20826,7 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N444">
         <v>0</v>
@@ -20870,7 +20870,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N445">
         <v>0</v>
@@ -21046,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N449">
         <v>0</v>
@@ -21090,7 +21090,7 @@
         <v>0</v>
       </c>
       <c r="M450">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N450">
         <v>0</v>
@@ -21222,7 +21222,7 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N453">
         <v>0</v>
@@ -21266,7 +21266,7 @@
         <v>0</v>
       </c>
       <c r="M454">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N454">
         <v>0</v>
@@ -21310,7 +21310,7 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N455">
         <v>0</v>
@@ -21354,7 +21354,7 @@
         <v>0</v>
       </c>
       <c r="M456">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N456">
         <v>0</v>
@@ -21398,7 +21398,7 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N457">
         <v>0</v>
@@ -21662,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="M463">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N463">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="M465">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N465">
         <v>0</v>
@@ -22234,7 +22234,7 @@
         <v>0</v>
       </c>
       <c r="M476">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N476">
         <v>0</v>
@@ -22278,7 +22278,7 @@
         <v>0</v>
       </c>
       <c r="M477">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N477">
         <v>0</v>
@@ -22366,7 +22366,7 @@
         <v>0</v>
       </c>
       <c r="M479">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N479">
         <v>0</v>
@@ -22410,7 +22410,7 @@
         <v>0</v>
       </c>
       <c r="M480">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N480">
         <v>0</v>
@@ -22586,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -22630,7 +22630,7 @@
         <v>0</v>
       </c>
       <c r="M485">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N485">
         <v>0</v>
@@ -22674,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="M486">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N486">
         <v>0</v>
@@ -22718,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="M487">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N487">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N488">
         <v>0</v>
@@ -22806,7 +22806,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N490">
         <v>0</v>
@@ -23114,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -23158,7 +23158,7 @@
         <v>0</v>
       </c>
       <c r="M497">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N497">
         <v>0</v>
@@ -23246,7 +23246,7 @@
         <v>0</v>
       </c>
       <c r="M499">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N499">
         <v>0</v>
@@ -23290,7 +23290,7 @@
         <v>0</v>
       </c>
       <c r="M500">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N500">
         <v>0</v>
@@ -23686,7 +23686,7 @@
         <v>0</v>
       </c>
       <c r="M509">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N509">
         <v>0</v>
@@ -24170,7 +24170,7 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N520">
         <v>0</v>
@@ -24346,7 +24346,7 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N524">
         <v>0</v>
@@ -24390,7 +24390,7 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N525">
         <v>0</v>
@@ -25182,7 +25182,7 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N543">
         <v>0</v>
@@ -25226,7 +25226,7 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N544">
         <v>0</v>
@@ -25446,7 +25446,7 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N549">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N550">
         <v>0</v>
@@ -25534,7 +25534,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25578,7 +25578,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N552">
         <v>0</v>
@@ -25710,7 +25710,7 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N555">
         <v>0</v>
@@ -26458,7 +26458,7 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N572">
         <v>0</v>
@@ -26502,7 +26502,7 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N573">
         <v>0</v>
@@ -26898,7 +26898,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N582">
         <v>0</v>
@@ -26942,7 +26942,7 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N583">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="M584">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N584">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N585">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M588">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N588">
         <v>0</v>
@@ -27206,7 +27206,7 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N589">
         <v>0</v>
@@ -27250,7 +27250,7 @@
         <v>0</v>
       </c>
       <c r="M590">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N590">
         <v>0</v>
@@ -27294,7 +27294,7 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N591">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="M595">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N595">
         <v>0</v>
@@ -27690,7 +27690,7 @@
         <v>0</v>
       </c>
       <c r="M600">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N600">
         <v>0</v>
@@ -27778,7 +27778,7 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N602">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="M603">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N603">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>0</v>
       </c>
       <c r="M610">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N610">
         <v>0</v>
@@ -28174,7 +28174,7 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N611">
         <v>0</v>
@@ -28218,7 +28218,7 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N612">
         <v>0</v>
@@ -28306,7 +28306,7 @@
         <v>0</v>
       </c>
       <c r="M614">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N614">
         <v>0</v>
@@ -28790,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="M625">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N625">
         <v>0</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="M626">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N626">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="M630">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N630">
         <v>0</v>
@@ -29054,7 +29054,7 @@
         <v>0</v>
       </c>
       <c r="M631">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N631">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="M640">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N640">
         <v>0</v>
@@ -29626,7 +29626,7 @@
         <v>0</v>
       </c>
       <c r="M644">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N644">
         <v>0</v>
@@ -29670,7 +29670,7 @@
         <v>0</v>
       </c>
       <c r="M645">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N645">
         <v>0</v>
@@ -30154,7 +30154,7 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N656">
         <v>0</v>
@@ -30242,7 +30242,7 @@
         <v>0</v>
       </c>
       <c r="M658">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N658">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N659">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="M663">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N663">
         <v>0</v>
@@ -30814,7 +30814,7 @@
         <v>0</v>
       </c>
       <c r="M671">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N671">
         <v>0</v>
@@ -30990,7 +30990,7 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N675">
         <v>0</v>
@@ -31034,7 +31034,7 @@
         <v>0</v>
       </c>
       <c r="M676">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N676">
         <v>0</v>
@@ -31430,7 +31430,7 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N685">
         <v>0</v>
@@ -31474,7 +31474,7 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N686">
         <v>0</v>
@@ -32442,7 +32442,7 @@
         <v>0</v>
       </c>
       <c r="M708">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N708">
         <v>0</v>
@@ -32530,7 +32530,7 @@
         <v>0</v>
       </c>
       <c r="M710">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N710">
         <v>0</v>
@@ -33234,7 +33234,7 @@
         <v>0</v>
       </c>
       <c r="M726">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N726">
         <v>0</v>
@@ -33322,7 +33322,7 @@
         <v>0</v>
       </c>
       <c r="M728">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N728">
         <v>0</v>
@@ -33410,7 +33410,7 @@
         <v>0</v>
       </c>
       <c r="M730">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N730">
         <v>0</v>
@@ -33454,7 +33454,7 @@
         <v>0</v>
       </c>
       <c r="M731">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N731">
         <v>0</v>
@@ -33498,7 +33498,7 @@
         <v>0</v>
       </c>
       <c r="M732">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N732">
         <v>0</v>
@@ -33762,7 +33762,7 @@
         <v>0</v>
       </c>
       <c r="M738">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N738">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="M739">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N739">
         <v>0</v>
@@ -33850,7 +33850,7 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N740">
         <v>0</v>
@@ -34158,7 +34158,7 @@
         <v>0</v>
       </c>
       <c r="M747">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N747">
         <v>0</v>
@@ -34422,7 +34422,7 @@
         <v>0</v>
       </c>
       <c r="M753">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N753">
         <v>0</v>
@@ -35082,7 +35082,7 @@
         <v>0</v>
       </c>
       <c r="M768">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N768">
         <v>0</v>
@@ -35126,7 +35126,7 @@
         <v>0</v>
       </c>
       <c r="M769">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N769">
         <v>0</v>
@@ -35214,7 +35214,7 @@
         <v>0</v>
       </c>
       <c r="M771">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N771">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>0</v>
       </c>
       <c r="M772">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N772">
         <v>0</v>
@@ -35522,7 +35522,7 @@
         <v>0</v>
       </c>
       <c r="M778">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N778">
         <v>0</v>
@@ -35742,7 +35742,7 @@
         <v>0</v>
       </c>
       <c r="M783">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N783">
         <v>0</v>
@@ -35830,7 +35830,7 @@
         <v>0</v>
       </c>
       <c r="M785">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N785">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="M788">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N788">
         <v>0</v>
@@ -36006,7 +36006,7 @@
         <v>0</v>
       </c>
       <c r="M789">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N789">
         <v>0</v>
